--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="4110" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,19 +55,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1번작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작업완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect리소스 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect클래스 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectmanager 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect리소스 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect파일 포맷 확인 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect 크기 조정 및 위치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager클래스 기능 정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -369,15 +390,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -414,20 +426,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,73 +504,82 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,375 +862,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4" style="11" customWidth="1"/>
-    <col min="7" max="7" width="4" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4" style="15" customWidth="1"/>
-    <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="14" width="4" style="7" customWidth="1"/>
-    <col min="15" max="15" width="4" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="16.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="55.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="4" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4" style="9" customWidth="1"/>
+    <col min="8" max="12" width="4" style="5" customWidth="1"/>
+    <col min="13" max="13" width="4" style="13" customWidth="1"/>
+    <col min="14" max="14" width="4" style="9" customWidth="1"/>
+    <col min="15" max="15" width="4" style="5" customWidth="1"/>
     <col min="16" max="16" width="4" style="11" customWidth="1"/>
-    <col min="17" max="17" width="4" style="7" customWidth="1"/>
-    <col min="18" max="18" width="4" style="13" customWidth="1"/>
-    <col min="19" max="19" width="4" style="11" customWidth="1"/>
-    <col min="20" max="21" width="4" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4" style="15" customWidth="1"/>
-    <col min="23" max="23" width="4" style="11" customWidth="1"/>
-    <col min="24" max="28" width="4" style="7" customWidth="1"/>
-    <col min="29" max="29" width="4" style="15" customWidth="1"/>
-    <col min="30" max="30" width="4" style="11" customWidth="1"/>
-    <col min="31" max="35" width="4" style="7" customWidth="1"/>
-    <col min="36" max="36" width="4" style="15" customWidth="1"/>
-    <col min="37" max="37" width="4" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4" style="9" customWidth="1"/>
+    <col min="18" max="19" width="4" style="5" customWidth="1"/>
+    <col min="20" max="20" width="4" style="13" customWidth="1"/>
+    <col min="21" max="21" width="4" style="9" customWidth="1"/>
+    <col min="22" max="26" width="4" style="5" customWidth="1"/>
+    <col min="27" max="27" width="4" style="13" customWidth="1"/>
+    <col min="28" max="28" width="4" style="9" customWidth="1"/>
+    <col min="29" max="33" width="4" style="5" customWidth="1"/>
+    <col min="34" max="34" width="4" style="13" customWidth="1"/>
+    <col min="35" max="35" width="4" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="19"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="21" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="19"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="19"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="21" t="s">
+      <c r="D5" s="8">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7">
+        <v>26</v>
+      </c>
+      <c r="M5" s="12">
+        <v>27</v>
+      </c>
+      <c r="N5" s="8">
+        <v>28</v>
+      </c>
+      <c r="O5" s="6">
+        <v>29</v>
+      </c>
+      <c r="P5" s="10">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2</v>
+      </c>
+      <c r="S5" s="7">
+        <v>3</v>
+      </c>
+      <c r="T5" s="12">
+        <v>4</v>
+      </c>
+      <c r="U5" s="8">
+        <v>5</v>
+      </c>
+      <c r="V5" s="6">
+        <v>6</v>
+      </c>
+      <c r="W5" s="6">
+        <v>7</v>
+      </c>
+      <c r="X5" s="6">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="6">
         <v>13</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="23"/>
+      <c r="AD5" s="6">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>18</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="21" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="AI6" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="23"/>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="14">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10">
-        <v>21</v>
-      </c>
-      <c r="J5" s="8">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8">
-        <v>23</v>
-      </c>
-      <c r="L5" s="8">
-        <v>24</v>
-      </c>
-      <c r="M5" s="8">
-        <v>25</v>
-      </c>
-      <c r="N5" s="9">
-        <v>26</v>
-      </c>
-      <c r="O5" s="14">
-        <v>27</v>
-      </c>
-      <c r="P5" s="10">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>29</v>
-      </c>
-      <c r="R5" s="12">
-        <v>30</v>
-      </c>
-      <c r="S5" s="10">
-        <v>1</v>
-      </c>
-      <c r="T5" s="8">
-        <v>2</v>
-      </c>
-      <c r="U5" s="9">
-        <v>3</v>
-      </c>
-      <c r="V5" s="14">
-        <v>4</v>
-      </c>
-      <c r="W5" s="10">
-        <v>5</v>
-      </c>
-      <c r="X5" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>8</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>13</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>15</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>16</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>17</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>18</v>
-      </c>
-      <c r="AK5" s="16">
-        <v>19</v>
-      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="22"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="AK6" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="S4:AK4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:AI4"/>
+    <mergeCell ref="A1:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="5235" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -534,6 +533,30 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,44 +566,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,13 +864,13 @@
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="16.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="34" customWidth="1"/>
     <col min="3" max="3" width="55.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" customWidth="1"/>
     <col min="5" max="5" width="4" style="5" customWidth="1"/>
@@ -895,11 +894,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="17"/>
       <c r="E1" s="25"/>
       <c r="F1" s="17" t="s">
@@ -938,9 +937,9 @@
       <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="17"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -977,9 +976,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17"/>
@@ -1014,51 +1013,51 @@
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1171,12 +1170,12 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
@@ -1185,18 +1184,18 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1209,10 +1208,10 @@
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
@@ -1228,8 +1227,8 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -1245,10 +1244,10 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="38"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1261,7 +1260,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>

--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="6360" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,19 +90,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect 크기 조정 및 위치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manager클래스 기능 정의</t>
+    <t>effect 출력 - 스프라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect 출력 - 메쉬 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager클래스 기능 정의 (일단 정리되었으나 추후 수정가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라이트 effect 크기 조정 및 위치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메쉬 effect 크기 조정 및 위치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager클래스 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +596,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1173,12 +1204,20 @@
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
       <c r="AI6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1191,11 +1230,11 @@
         <v>15</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1203,22 +1242,22 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
@@ -1227,13 +1266,15 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="24"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -1241,17 +1282,17 @@
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="32"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
@@ -1260,12 +1301,22 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
@@ -1275,6 +1326,75 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1284,6 +1404,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="7530" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,11 +114,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>manager클래스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>alpha테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manager클래스 구현</t>
+    <t>화면 effect 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +181,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -467,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +585,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,19 +621,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,10 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,11 +953,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="17"/>
       <c r="E1" s="25"/>
       <c r="F1" s="17" t="s">
@@ -968,9 +996,9 @@
       <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="17"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1007,9 +1035,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17"/>
@@ -1044,45 +1072,45 @@
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="35" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1212,12 +1240,26 @@
       <c r="L6" s="28"/>
       <c r="M6" s="29"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="32"/>
       <c r="AI6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1230,11 +1272,11 @@
         <v>15</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1247,9 +1289,9 @@
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1269,8 +1311,10 @@
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
@@ -1282,13 +1326,13 @@
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="43"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
@@ -1306,16 +1350,16 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="22"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="32"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
@@ -1329,12 +1373,14 @@
       <c r="M12" s="24"/>
       <c r="N12" s="22"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="47"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="22"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
@@ -1352,15 +1398,22 @@
       <c r="M13" s="24"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="22"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="32"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
-        <v>13</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
@@ -1369,14 +1422,32 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
       <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="23"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1385,16 +1456,39 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_위진영.xlsx
+++ b/일정_위진영.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="9870" yWindow="0" windowWidth="27870" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,39 +90,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect 출력 - 스프라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect 출력 - 메쉬 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager클래스 기능 정의 (일단 정리되었으나 추후 수정가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프라이트 effect 크기 조정 및 위치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메쉬 effect 크기 조정 및 위치 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager클래스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 effect 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>effect 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect 출력 - 스프라이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect 출력 - 메쉬 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager클래스 기능 정의 (일단 정리되었으나 추후 수정가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프라이트 effect 크기 조정 및 위치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메쉬 effect 크기 조정 및 위치 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager클래스 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 effect 테스트</t>
+    <t>검광 이펙트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha 테스트 - 메쉬 알파테스트 확인중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 구성 및 배치 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 및 디버깅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -479,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,6 +615,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,22 +657,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,11 +955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,11 +989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="17"/>
       <c r="E1" s="25"/>
       <c r="F1" s="17" t="s">
@@ -996,9 +1032,9 @@
       <c r="AI1" s="19"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="17"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1035,9 +1071,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="17"/>
       <c r="E3" s="21"/>
       <c r="F3" s="17"/>
@@ -1072,45 +1108,45 @@
       <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="39" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1240,12 +1276,12 @@
       <c r="L6" s="28"/>
       <c r="M6" s="29"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="50"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="30"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
@@ -1254,41 +1290,63 @@
       <c r="Z6" s="31"/>
       <c r="AA6" s="32"/>
       <c r="AB6" s="30"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="32"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="24"/>
       <c r="AI6" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="24"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="16"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>17</v>
+      <c r="B8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="37"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -1298,27 +1356,23 @@
       <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>18</v>
+      <c r="C9" s="53" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="24"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>20</v>
+      <c r="C10" s="53" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
@@ -1326,17 +1380,18 @@
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="38"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
-        <v>21</v>
+      <c r="C11" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
@@ -1344,22 +1399,17 @@
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="22"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="23"/>
       <c r="P11" s="38"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>23</v>
+      <c r="C12" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
@@ -1374,17 +1424,15 @@
       <c r="N12" s="22"/>
       <c r="O12" s="23"/>
       <c r="P12" s="38"/>
-      <c r="Q12" s="22"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
@@ -1399,17 +1447,13 @@
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="28"/>
       <c r="T13" s="29"/>
       <c r="U13" s="30"/>
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="32"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
@@ -1429,25 +1473,15 @@
       <c r="O14" s="23"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="23"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1456,10 +1490,23 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
       <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="32"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
@@ -1473,22 +1520,80 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="32"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="32"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
